--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliehutcheson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javicanton/Documents/GitHub/Make-Over-Monday-2020-Week-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFB4403-CBA1-1047-A2AD-B818FC659FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD0B00-3A6F-3C4A-89F9-7DBB4B694129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="960" windowWidth="25160" windowHeight="13920" xr2:uid="{21600B48-EC14-7844-A6D5-F5DBEBC0877E}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -489,25 +489,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="3">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C1" s="3">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D1" s="3">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E1" s="3">
         <v>2007</v>
       </c>
       <c r="F1" s="3">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G1" s="3">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="H1" s="3">
-        <v>2004</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -518,19 +518,19 @@
         <v>37</v>
       </c>
       <c r="C2" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>43</v>
       </c>
       <c r="F2" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
         <v>37</v>
@@ -541,25 +541,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>12</v>
       </c>
       <c r="H3" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -567,25 +567,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>13</v>
       </c>
       <c r="F4" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -593,25 +593,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
         <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -619,25 +619,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
         <v>4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -645,25 +645,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -697,25 +697,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -723,25 +723,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -827,25 +827,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -1009,25 +1009,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
         <v>6</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3</v>
       </c>
       <c r="G21" s="2">
         <v>4</v>
       </c>
       <c r="H21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -1035,25 +1035,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
         <v>12</v>
       </c>
       <c r="F22" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
